--- a/node_matrix.xlsx
+++ b/node_matrix.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12921\Desktop\System\LargeEventProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4654C-7DCF-4875-A930-C1E64FEC558B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +31,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>x坐标</t>
+    <t>x</t>
   </si>
   <si>
-    <t>y坐标</t>
+    <t>y</t>
   </si>
   <si>
     <t>地点序列</t>
@@ -49,8 +43,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +88,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -98,22 +97,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -121,9 +443,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -150,17 +714,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -410,27 +1018,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI32" sqref="AI32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="8.125" customWidth="1"/>
+    <col min="1" max="2" width="8.12727272727273" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="12" width="4.25" customWidth="1"/>
-    <col min="13" max="33" width="5.25" customWidth="1"/>
+    <col min="4" max="12" width="4.25454545454545" customWidth="1"/>
+    <col min="13" max="33" width="5.25454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="1" ht="18.6" customHeight="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +1148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="2" ht="18.6" customHeight="1" spans="1:36">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -588,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="3" ht="18.6" customHeight="1" spans="1:36">
       <c r="A3" s="2">
         <v>-10</v>
       </c>
@@ -636,7 +1244,7 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
-    <row r="4" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="4" ht="18.6" customHeight="1" spans="1:36">
       <c r="A4" s="2">
         <v>-40</v>
       </c>
@@ -692,7 +1300,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="5" ht="18.6" customHeight="1" spans="1:36">
       <c r="A5" s="2">
         <v>-30</v>
       </c>
@@ -740,7 +1348,7 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="6" ht="18.6" customHeight="1" spans="1:36">
       <c r="A6" s="2">
         <v>30</v>
       </c>
@@ -792,7 +1400,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="7" ht="18.6" customHeight="1" spans="1:36">
       <c r="A7" s="2">
         <v>-10</v>
       </c>
@@ -840,7 +1448,7 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="8" ht="18.6" customHeight="1" spans="1:36">
       <c r="A8" s="2">
         <v>-40</v>
       </c>
@@ -888,7 +1496,7 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="9" ht="18.6" customHeight="1" spans="1:36">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -936,7 +1544,7 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="10" ht="18.6" customHeight="1" spans="1:36">
       <c r="A10" s="2">
         <v>-40</v>
       </c>
@@ -986,7 +1594,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="11" ht="18.6" customHeight="1" spans="1:36">
       <c r="A11" s="2">
         <v>-30</v>
       </c>
@@ -1036,7 +1644,7 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="12" ht="18.6" customHeight="1" spans="1:33">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1087,7 +1695,7 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
     </row>
-    <row r="13" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="13" ht="18.6" customHeight="1" spans="1:33">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1138,7 +1746,7 @@
       </c>
       <c r="AG13" s="2"/>
     </row>
-    <row r="14" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="14" ht="18.6" customHeight="1" spans="1:33">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1187,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="15" ht="18.6" customHeight="1" spans="1:35">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1237,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="18.600000000000001" customHeight="1">
+    <row r="16" ht="18.6" customHeight="1" spans="1:33">
       <c r="A16" s="2">
         <v>-30</v>
       </c>
@@ -1284,7 +1892,7 @@
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
     </row>
-    <row r="17" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="17" ht="18.6" customHeight="1" spans="1:33">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -1335,7 +1943,7 @@
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
     </row>
-    <row r="18" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="18" ht="18.6" customHeight="1" spans="1:33">
       <c r="A18" s="2">
         <v>-50</v>
       </c>
@@ -1380,7 +1988,7 @@
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
     </row>
-    <row r="19" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="19" ht="18.6" customHeight="1" spans="1:33">
       <c r="A19" s="2">
         <v>30</v>
       </c>
@@ -1427,7 +2035,7 @@
       </c>
       <c r="AG19" s="2"/>
     </row>
-    <row r="20" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="20" ht="18.6" customHeight="1" spans="1:33">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -1476,7 +2084,7 @@
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
     </row>
-    <row r="21" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="21" ht="18.6" customHeight="1" spans="1:33">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -1523,7 +2131,7 @@
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
     </row>
-    <row r="22" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="22" ht="18.6" customHeight="1" spans="1:33">
       <c r="A22" s="2">
         <v>-10</v>
       </c>
@@ -1570,7 +2178,7 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
     </row>
-    <row r="23" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="23" ht="18.6" customHeight="1" spans="1:33">
       <c r="A23" s="2">
         <v>-15</v>
       </c>
@@ -1615,7 +2223,7 @@
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
     </row>
-    <row r="24" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="24" ht="18.6" customHeight="1" spans="1:33">
       <c r="A24" s="2">
         <v>-40</v>
       </c>
@@ -1660,7 +2268,7 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
     </row>
-    <row r="25" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="25" ht="18.6" customHeight="1" spans="1:33">
       <c r="A25" s="2">
         <v>-35</v>
       </c>
@@ -1707,7 +2315,7 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
     </row>
-    <row r="26" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="26" ht="18.6" customHeight="1" spans="1:33">
       <c r="A26" s="2">
         <v>-40</v>
       </c>
@@ -1752,7 +2360,7 @@
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
     </row>
-    <row r="27" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="27" ht="18.6" customHeight="1" spans="1:33">
       <c r="A27" s="2">
         <v>-45</v>
       </c>
@@ -1797,7 +2405,7 @@
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
     </row>
-    <row r="28" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="28" ht="18.6" customHeight="1" spans="1:33">
       <c r="A28" s="2">
         <v>-25</v>
       </c>
@@ -1844,7 +2452,7 @@
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
     </row>
-    <row r="29" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="29" ht="18.6" customHeight="1" spans="1:33">
       <c r="A29" s="2">
         <v>-30</v>
       </c>
@@ -1889,7 +2497,7 @@
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
     </row>
-    <row r="30" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="30" ht="18.6" customHeight="1" spans="1:33">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -1936,7 +2544,7 @@
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
     </row>
-    <row r="31" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="31" ht="18.6" customHeight="1" spans="1:35">
       <c r="A31" s="2">
         <v>25</v>
       </c>
@@ -1983,7 +2591,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
     </row>
-    <row r="32" spans="1:42" ht="16.5">
+    <row r="32" ht="14.5" spans="1:42">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -2037,7 +2645,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42" ht="16.5">
+    <row r="33" ht="14.5" spans="1:42">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -2095,7 +2703,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42" ht="16.5">
+    <row r="34" ht="14.5" spans="1:42">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -2149,45 +2757,51 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="1:42" ht="16.5">
+    <row r="35" ht="14.5" spans="1:2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:42" ht="16.5">
+    <row r="36" ht="14.5" spans="1:2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/node_matrix.xlsx
+++ b/node_matrix.xlsx
@@ -1026,8 +1026,8 @@
   <sheetPr/>
   <dimension ref="A1:AP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1263,7 +1263,9 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>

--- a/node_matrix.xlsx
+++ b/node_matrix.xlsx
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:AP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1263,9 +1263,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>

--- a/node_matrix.xlsx
+++ b/node_matrix.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12921\Desktop\System\LargeEventProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEAC774-131A-4B1D-B973-2CF8284ADA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
@@ -39,18 +45,16 @@
   <si>
     <t>地点序列</t>
   </si>
+  <si>
+    <t>Property</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +92,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -97,345 +102,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -443,255 +133,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,62 +161,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1018,27 +428,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="AK21" sqref="AK21:AK35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="8.12727272727273" customWidth="1"/>
+    <col min="1" max="2" width="8.125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="12" width="4.25454545454545" customWidth="1"/>
-    <col min="13" max="33" width="5.25454545454545" customWidth="1"/>
+    <col min="4" max="12" width="4.25" customWidth="1"/>
+    <col min="13" max="33" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.6" customHeight="1" spans="1:36">
+    <row r="1" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,8 +557,11 @@
       <c r="AJ1" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" ht="18.6" customHeight="1" spans="1:36">
+      <c r="AK1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1195,8 +608,11 @@
       <c r="AJ2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="18.6" customHeight="1" spans="1:36">
+      <c r="AK2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>-10</v>
       </c>
@@ -1243,8 +659,11 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
-    </row>
-    <row r="4" ht="18.6" customHeight="1" spans="1:36">
+      <c r="AK3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>-40</v>
       </c>
@@ -1299,8 +718,11 @@
       </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-    </row>
-    <row r="5" ht="18.6" customHeight="1" spans="1:36">
+      <c r="AK4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="2">
         <v>-30</v>
       </c>
@@ -1347,8 +769,11 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
-    </row>
-    <row r="6" ht="18.6" customHeight="1" spans="1:36">
+      <c r="AK5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>30</v>
       </c>
@@ -1399,8 +824,11 @@
         <v>2</v>
       </c>
       <c r="AJ6" s="2"/>
-    </row>
-    <row r="7" ht="18.6" customHeight="1" spans="1:36">
+      <c r="AK6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>-10</v>
       </c>
@@ -1447,8 +875,11 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-    </row>
-    <row r="8" ht="18.6" customHeight="1" spans="1:36">
+      <c r="AK7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="2">
         <v>-40</v>
       </c>
@@ -1495,8 +926,11 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
-    </row>
-    <row r="9" ht="18.6" customHeight="1" spans="1:36">
+      <c r="AK8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1543,8 +977,11 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
-    </row>
-    <row r="10" ht="18.6" customHeight="1" spans="1:36">
+      <c r="AK9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="2">
         <v>-40</v>
       </c>
@@ -1593,8 +1030,11 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
-    </row>
-    <row r="11" ht="18.6" customHeight="1" spans="1:36">
+      <c r="AK10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="2">
         <v>-30</v>
       </c>
@@ -1643,8 +1083,11 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-    </row>
-    <row r="12" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1694,8 +1137,11 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-    </row>
-    <row r="13" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1745,8 +1191,11 @@
         <v>1</v>
       </c>
       <c r="AG13" s="2"/>
-    </row>
-    <row r="14" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1794,8 +1243,11 @@
       <c r="AG14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" ht="18.6" customHeight="1" spans="1:35">
+      <c r="AK14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1844,8 +1296,11 @@
       <c r="AI15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="2">
         <v>-30</v>
       </c>
@@ -1891,8 +1346,11 @@
       </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-    </row>
-    <row r="17" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -1942,8 +1400,11 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-    </row>
-    <row r="18" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="2">
         <v>-50</v>
       </c>
@@ -1987,8 +1448,11 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-    </row>
-    <row r="19" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="2">
         <v>30</v>
       </c>
@@ -2034,8 +1498,11 @@
         <v>1</v>
       </c>
       <c r="AG19" s="2"/>
-    </row>
-    <row r="20" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" ht="16.5">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -2083,8 +1550,11 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-    </row>
-    <row r="21" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -2130,8 +1600,11 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
-    </row>
-    <row r="22" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="2">
         <v>-10</v>
       </c>
@@ -2177,8 +1650,11 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-    </row>
-    <row r="23" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A23" s="2">
         <v>-15</v>
       </c>
@@ -2222,8 +1698,11 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-    </row>
-    <row r="24" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A24" s="2">
         <v>-40</v>
       </c>
@@ -2267,8 +1746,11 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
-    </row>
-    <row r="25" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="2">
         <v>-35</v>
       </c>
@@ -2314,8 +1796,11 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
-    </row>
-    <row r="26" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A26" s="2">
         <v>-40</v>
       </c>
@@ -2359,8 +1844,11 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
-    </row>
-    <row r="27" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A27" s="2">
         <v>-45</v>
       </c>
@@ -2404,8 +1892,11 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
-    </row>
-    <row r="28" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A28" s="2">
         <v>-25</v>
       </c>
@@ -2451,8 +1942,11 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
-    </row>
-    <row r="29" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A29" s="2">
         <v>-30</v>
       </c>
@@ -2496,8 +1990,11 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
-    </row>
-    <row r="30" ht="18.6" customHeight="1" spans="1:33">
+      <c r="AK29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -2543,8 +2040,11 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
-    </row>
-    <row r="31" ht="18.6" customHeight="1" spans="1:35">
+      <c r="AK30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A31" s="2">
         <v>25</v>
       </c>
@@ -2590,8 +2090,11 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
-    </row>
-    <row r="32" ht="14.5" spans="1:42">
+      <c r="AK31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" ht="16.5">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -2638,14 +2141,16 @@
         <v>2</v>
       </c>
       <c r="AJ32" s="2"/>
-      <c r="AK32" s="2"/>
+      <c r="AK32">
+        <v>4</v>
+      </c>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" ht="14.5" spans="1:42">
+    <row r="33" spans="1:42" ht="16.5">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -2696,14 +2201,16 @@
       <c r="AJ33" s="2">
         <v>1</v>
       </c>
-      <c r="AK33" s="2"/>
+      <c r="AK33">
+        <v>4</v>
+      </c>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" ht="14.5" spans="1:42">
+    <row r="34" spans="1:42" ht="16.5">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -2750,58 +2257,57 @@
         <v>1</v>
       </c>
       <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
+      <c r="AK34">
+        <v>4</v>
+      </c>
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" ht="14.5" spans="1:2">
+    <row r="35" spans="1:42" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-    </row>
-    <row r="36" ht="14.5" spans="1:2">
+      <c r="AK35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/node_matrix.xlsx
+++ b/node_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12921\Desktop\System\LargeEventProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEAC774-131A-4B1D-B973-2CF8284ADA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541BF45E-D820-4346-B94A-B3B0946A300C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -47,6 +47,22 @@
   </si>
   <si>
     <t>Property</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venue</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_dest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depot</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affectted_node</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,9 +179,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,19 +449,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21:AK35"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="AK39" sqref="AK39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="8.125" customWidth="1"/>
+    <col min="1" max="2" width="8.08984375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="12" width="4.25" customWidth="1"/>
-    <col min="13" max="33" width="5.25" customWidth="1"/>
+    <col min="4" max="12" width="4.26953125" customWidth="1"/>
+    <col min="13" max="33" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="18.600000000000001" customHeight="1">
+    <row r="1" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="18.600000000000001" customHeight="1">
+    <row r="2" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -608,11 +621,11 @@
       <c r="AJ2" s="2">
         <v>1</v>
       </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A3" s="2">
         <v>-10</v>
       </c>
@@ -659,11 +672,11 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A4" s="2">
         <v>-40</v>
       </c>
@@ -718,11 +731,11 @@
       </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A5" s="2">
         <v>-30</v>
       </c>
@@ -769,11 +782,11 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A6" s="2">
         <v>30</v>
       </c>
@@ -824,11 +837,11 @@
         <v>2</v>
       </c>
       <c r="AJ6" s="2"/>
-      <c r="AK6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A7" s="2">
         <v>-10</v>
       </c>
@@ -875,11 +888,11 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-      <c r="AK7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A8" s="2">
         <v>-40</v>
       </c>
@@ -926,11 +939,11 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
-      <c r="AK8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -977,11 +990,11 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
-      <c r="AK9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A10" s="2">
         <v>-40</v>
       </c>
@@ -1030,11 +1043,11 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
-      <c r="AK10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK10" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A11" s="2">
         <v>-30</v>
       </c>
@@ -1083,11 +1096,11 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-      <c r="AK11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK11" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1137,11 +1150,11 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-      <c r="AK12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK12" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1191,11 +1204,11 @@
         <v>1</v>
       </c>
       <c r="AG13" s="2"/>
-      <c r="AK13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1243,11 +1256,11 @@
       <c r="AG14" s="2">
         <v>1</v>
       </c>
-      <c r="AK14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK14" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1296,11 +1309,11 @@
       <c r="AI15">
         <v>1</v>
       </c>
-      <c r="AK15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" ht="18.600000000000001" customHeight="1">
+      <c r="AK15" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="18.649999999999999" customHeight="1">
       <c r="A16" s="2">
         <v>-30</v>
       </c>
@@ -1346,11 +1359,11 @@
       </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AK16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK16" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -1400,11 +1413,11 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AK17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK17" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A18" s="2">
         <v>-50</v>
       </c>
@@ -1448,11 +1461,11 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-      <c r="AK18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK18" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A19" s="2">
         <v>30</v>
       </c>
@@ -1498,11 +1511,11 @@
         <v>1</v>
       </c>
       <c r="AG19" s="2"/>
-      <c r="AK19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" ht="16.5">
+      <c r="AK19" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" ht="14.5">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -1550,11 +1563,11 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-      <c r="AK20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK20" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -1600,11 +1613,11 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
-      <c r="AK21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK21" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A22" s="2">
         <v>-10</v>
       </c>
@@ -1650,11 +1663,11 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AK22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK22" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A23" s="2">
         <v>-15</v>
       </c>
@@ -1698,11 +1711,11 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AK23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK23" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A24" s="2">
         <v>-40</v>
       </c>
@@ -1746,11 +1759,11 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
-      <c r="AK24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK24" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A25" s="2">
         <v>-35</v>
       </c>
@@ -1796,11 +1809,11 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
-      <c r="AK25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK25" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A26" s="2">
         <v>-40</v>
       </c>
@@ -1844,11 +1857,11 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
-      <c r="AK26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK26" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A27" s="2">
         <v>-45</v>
       </c>
@@ -1892,11 +1905,11 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
-      <c r="AK27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK27" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A28" s="2">
         <v>-25</v>
       </c>
@@ -1942,11 +1955,11 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
-      <c r="AK28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK28" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A29" s="2">
         <v>-30</v>
       </c>
@@ -1990,11 +2003,11 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
-      <c r="AK29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK29" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -2040,11 +2053,11 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
-      <c r="AK30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" ht="18.600000000000001" customHeight="1">
+      <c r="AK30" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A31" s="2">
         <v>25</v>
       </c>
@@ -2090,11 +2103,11 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
-      <c r="AK31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" ht="16.5">
+      <c r="AK31" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" ht="14.5">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -2141,8 +2154,8 @@
         <v>2</v>
       </c>
       <c r="AJ32" s="2"/>
-      <c r="AK32">
-        <v>4</v>
+      <c r="AK32" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
@@ -2150,7 +2163,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42" ht="16.5">
+    <row r="33" spans="1:42" ht="14.5">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -2201,8 +2214,8 @@
       <c r="AJ33" s="2">
         <v>1</v>
       </c>
-      <c r="AK33">
-        <v>4</v>
+      <c r="AK33" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
@@ -2210,7 +2223,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42" ht="16.5">
+    <row r="34" spans="1:42" ht="10.5" customHeight="1">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -2257,8 +2270,8 @@
         <v>1</v>
       </c>
       <c r="AJ34" s="2"/>
-      <c r="AK34">
-        <v>4</v>
+      <c r="AK34" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
@@ -2266,14 +2279,12 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="1:42" ht="16.5">
+    <row r="35" spans="1:42" ht="14.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="AK35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42" ht="16.5">
+      <c r="AK35" s="7"/>
+    </row>
+    <row r="36" spans="1:42" ht="14.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
@@ -2290,7 +2301,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2304,7 +2315,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/node_matrix.xlsx
+++ b/node_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12921\Desktop\System\LargeEventProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541BF45E-D820-4346-B94A-B3B0946A300C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644E031A-D110-462E-AD7A-D4F7E288B4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP36"/>
+  <dimension ref="A1:AP39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="AK39" sqref="AK39"/>
@@ -2287,6 +2287,9 @@
     <row r="36" spans="1:42" ht="14.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
+    </row>
+    <row r="39" spans="1:42">
+      <c r="AK39" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/node_matrix.xlsx
+++ b/node_matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12921\Desktop\System\LargeEventProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\iCloudDrive\Delft23Fall\Q4-Simulation\LargeEventProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644E031A-D110-462E-AD7A-D4F7E288B4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{731A430B-76A2-47E7-AE77-B0646B2D4536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12405" yWindow="2115" windowWidth="25110" windowHeight="19275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,15 +453,15 @@
       <selection activeCell="AK39" sqref="AK39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="8.08984375" customWidth="1"/>
+    <col min="1" max="2" width="8.125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="12" width="4.26953125" customWidth="1"/>
-    <col min="13" max="33" width="5.26953125" customWidth="1"/>
+    <col min="4" max="12" width="4.25" customWidth="1"/>
+    <col min="13" max="33" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="1" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="2" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -625,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="3" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>-10</v>
       </c>
@@ -676,7 +676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="4" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>-40</v>
       </c>
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="5" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="2">
         <v>-30</v>
       </c>
@@ -786,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="6" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>30</v>
       </c>
@@ -841,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="7" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>-10</v>
       </c>
@@ -892,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="8" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="2">
         <v>-40</v>
       </c>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="9" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="10" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="2">
         <v>-40</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="11" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="2">
         <v>-30</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="12" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="13" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="14" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="15" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="18.649999999999999" customHeight="1">
+    <row r="16" spans="1:37" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="2">
         <v>-30</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="17" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="18" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="2">
         <v>-50</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="19" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="2">
         <v>30</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="14.5">
+    <row r="20" spans="1:42" ht="16.5">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="21" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="22" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="2">
         <v>-10</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="23" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A23" s="2">
         <v>-15</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="24" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A24" s="2">
         <v>-40</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="25" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="2">
         <v>-35</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="26" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A26" s="2">
         <v>-40</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="27" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A27" s="2">
         <v>-45</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="28" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A28" s="2">
         <v>-25</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="29" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A29" s="2">
         <v>-30</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="30" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="18.649999999999999" customHeight="1">
+    <row r="31" spans="1:42" ht="18.600000000000001" customHeight="1">
       <c r="A31" s="2">
         <v>25</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="14.5">
+    <row r="32" spans="1:42" ht="16.5">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42" ht="14.5">
+    <row r="33" spans="1:42" ht="16.5">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -2279,12 +2279,12 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="1:42" ht="14.5">
+    <row r="35" spans="1:42" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="AK35" s="7"/>
     </row>
-    <row r="36" spans="1:42" ht="14.5">
+    <row r="36" spans="1:42" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
@@ -2304,7 +2304,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2318,7 +2318,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
